--- a/WebApp/Files/cargaDataBusccadorAndino - copia.xlsx
+++ b/WebApp/Files/cargaDataBusccadorAndino - copia.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arupo\Documents\dotNet\Buscador\WebApp\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339B022A-DD87-499C-9B56-5DA6BE6F6EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07B1C0A-2B72-46A4-99B0-1BA1D8DE4331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{227A6549-022C-499C-9D9D-BE9574C66532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{227A6549-022C-499C-9D9D-BE9574C66532}"/>
   </bookViews>
   <sheets>
-    <sheet name="GRILLA" sheetId="3" r:id="rId1"/>
+    <sheet name="vsSAE_Organizacion" sheetId="3" r:id="rId1"/>
     <sheet name="ESQ_01" sheetId="2" r:id="rId2"/>
     <sheet name="ESQ_02" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="58">
   <si>
     <t>sdfsf</t>
   </si>
@@ -153,13 +153,70 @@
   </si>
   <si>
     <t>Ecuador</t>
+  </si>
+  <si>
+    <t>IdConexion</t>
+  </si>
+  <si>
+    <t>IdOnaDatos</t>
+  </si>
+  <si>
+    <t>IdOrganizacion</t>
+  </si>
+  <si>
+    <t>IdVista</t>
+  </si>
+  <si>
+    <t>OrgNombreComercial</t>
+  </si>
+  <si>
+    <t>OrgRazonSocial</t>
+  </si>
+  <si>
+    <t>OrgCodigoAcreditacion</t>
+  </si>
+  <si>
+    <t>OrgPais</t>
+  </si>
+  <si>
+    <t>OrgCiudad</t>
+  </si>
+  <si>
+    <t>OrgDireccion</t>
+  </si>
+  <si>
+    <t>OrgWeb</t>
+  </si>
+  <si>
+    <t>orgCorreo</t>
+  </si>
+  <si>
+    <t>orgTelefono</t>
+  </si>
+  <si>
+    <t>OrgEstadoAcreditado</t>
+  </si>
+  <si>
+    <t>OrgEsquemaAcreditado</t>
+  </si>
+  <si>
+    <t>OrgNormaAcreditada</t>
+  </si>
+  <si>
+    <t>OrgReconocimiento</t>
+  </si>
+  <si>
+    <t>OrgFechaReconocimiento</t>
+  </si>
+  <si>
+    <t>OrgFechaActualizacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +226,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -196,11 +261,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,810 +582,1135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AE43D8-A90F-431E-8B7E-EF5425F0292A}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1">
-        <v>41</v>
-      </c>
-      <c r="I1">
-        <v>42</v>
-      </c>
-      <c r="J1">
-        <v>43</v>
-      </c>
-      <c r="K1">
         <v>44</v>
       </c>
-      <c r="L1">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="M1">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="N1">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45448</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>45448</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="S2" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T2" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45448</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <v>45448</v>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="S3" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T3" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45448</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
-        <v>45448</v>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
       <c r="K4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
         <v>4</v>
       </c>
-      <c r="M4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T4" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45448</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>45448</v>
+      <c r="D5">
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T5" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45448</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
-        <v>45448</v>
+      <c r="D6">
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
         <v>9</v>
       </c>
-      <c r="K6" t="s">
-        <v>10</v>
-      </c>
       <c r="L6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
         <v>9</v>
       </c>
-      <c r="N6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
+      <c r="Q6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T6" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45448</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
-        <v>45448</v>
+      <c r="D7">
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
         <v>7</v>
       </c>
-      <c r="M7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T7" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45448</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
-        <v>45448</v>
+      <c r="D8">
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
         <v>32</v>
       </c>
-      <c r="K8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T8" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45448</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
-        <v>45448</v>
+      <c r="D9">
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="K9" t="s">
+      <c r="Q9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
+      <c r="R9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T9" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45448</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
-        <v>45448</v>
+      <c r="D10">
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
+      <c r="O10" t="s">
         <v>7</v>
       </c>
-      <c r="J10" t="s">
+      <c r="P10" t="s">
         <v>33</v>
       </c>
-      <c r="K10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="Q10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" t="s">
         <v>7</v>
       </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
+      <c r="S10" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T10" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45448</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="2">
-        <v>45448</v>
+      <c r="D11">
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="O11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
         <v>19</v>
       </c>
-      <c r="K11" t="s">
+      <c r="Q11" t="s">
         <v>20</v>
       </c>
-      <c r="L11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
+      <c r="R11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T11" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45448</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="2">
-        <v>45448</v>
+      <c r="D12">
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>14</v>
       </c>
       <c r="N12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T12" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45448</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="2">
-        <v>45448</v>
+      <c r="D13">
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
         <v>9</v>
       </c>
-      <c r="K13" t="s">
-        <v>10</v>
-      </c>
       <c r="L13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>14</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" t="s">
         <v>9</v>
       </c>
-      <c r="N13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
+      <c r="Q13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T13" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45448</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="2">
-        <v>45448</v>
+      <c r="D14">
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
         <v>7</v>
       </c>
-      <c r="J14" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
         <v>7</v>
       </c>
-      <c r="M14" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
+      <c r="P14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T14" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45448</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" s="2">
-        <v>45448</v>
+      <c r="D15">
+        <v>14</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
         <v>23</v>
       </c>
-      <c r="K15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="Q15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T15" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45448</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" s="2">
-        <v>45448</v>
+      <c r="D16">
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
         <v>25</v>
       </c>
-      <c r="K16" t="s">
+      <c r="Q16" t="s">
         <v>11</v>
       </c>
-      <c r="L16" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+      <c r="R16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T16" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45448</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" s="2">
-        <v>45448</v>
+      <c r="D17">
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17" t="s">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
+      <c r="O17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" t="s">
+      <c r="P17" t="s">
         <v>24</v>
       </c>
-      <c r="K17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="Q17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" t="s">
         <v>7</v>
       </c>
-      <c r="M17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+      <c r="S17" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T17" s="5">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45448</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" s="2">
-        <v>45448</v>
+      <c r="D18">
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H18" t="s">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>14</v>
       </c>
       <c r="N18" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="5">
+        <v>45448</v>
+      </c>
+      <c r="T18" s="5">
+        <v>45448</v>
       </c>
     </row>
   </sheetData>
@@ -1926,12 +2318,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC73D135-DF39-4A2A-8C8C-E859C1F22551}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
   </cols>
@@ -1941,7 +2334,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -1949,8 +2342,8 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F1" t="s">
         <v>35</v>
@@ -1972,8 +2365,8 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2004,8 +2397,8 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2036,8 +2429,8 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2068,8 +2461,8 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2100,8 +2493,8 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2132,8 +2525,8 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2164,8 +2557,8 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -2196,8 +2589,8 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -2228,8 +2621,8 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2260,8 +2653,8 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -2292,8 +2685,8 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -2324,8 +2717,8 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -2356,8 +2749,8 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -2388,8 +2781,8 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -2420,8 +2813,8 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -2452,8 +2845,8 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2484,8 +2877,8 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18">
         <v>17</v>
